--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail3 Features.xlsx
@@ -4487,7 +4487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4498,29 +4498,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4541,115 +4539,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4666,72 +4654,66 @@
         <v>1.159732521082144e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2123460858870825</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.516729330867645</v>
+        <v>4.016919758830425e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.02614177017672092</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.016919758830425e-06</v>
+        <v>0.1728247712357301</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02614177017672092</v>
+        <v>0.03055172132970241</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1728247712357301</v>
+        <v>1.695331112623752</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03055172132970241</v>
+        <v>1.784098098878616</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.604437984404742</v>
+        <v>3.64621861659299</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.784098098878616</v>
+        <v>5.725293383036223e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.64621861659299</v>
+        <v>43007150.76669797</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.725293383036223e-15</v>
+        <v>2.647804606252293e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>43007150.76669797</v>
+        <v>10.58958861839238</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.647804606252293e-06</v>
+        <v>0.0001614036691777098</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10.58958861839238</v>
+        <v>9.463553243626594</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001614036691777098</v>
+        <v>1.371255293175466</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.463553243626594</v>
+        <v>0.01445512538248523</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.371255293175466</v>
+        <v>2.898585774542258</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01445512538248523</v>
+        <v>0.9543687684135749</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.898585774542258</v>
+        <v>1.794507687927054</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9543687684135749</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.794507687927054</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1709854924007402</v>
       </c>
     </row>
@@ -4746,72 +4728,66 @@
         <v>1.160196422961772e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2745393091262474</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.492526913981673</v>
+        <v>4.019967462105134e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.0261103581721967</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.019967462105134e-06</v>
+        <v>0.1727162912396261</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0261103581721967</v>
+        <v>0.0305121091344522</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1727162912396261</v>
+        <v>1.709174841972523</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0305121091344522</v>
+        <v>1.534617088685152</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.622726404665439</v>
+        <v>4.011997493100081</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.534617088685152</v>
+        <v>4.728918709969014e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.011997493100081</v>
+        <v>49434489.42354804</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.728918709969014e-15</v>
+        <v>2.308601479136167e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>49434489.42354804</v>
+        <v>11.55638373901982</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.308601479136167e-06</v>
+        <v>0.0001501026181876564</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.55638373901982</v>
+        <v>9.798251745907281</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001501026181876564</v>
+        <v>1.308007090914191</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.798251745907281</v>
+        <v>0.01441071252619016</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.308007090914191</v>
+        <v>2.921195871122951</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01441071252619016</v>
+        <v>0.953524745780774</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.921195871122951</v>
+        <v>1.774569404743201</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.953524745780774</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.774569404743201</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1899253874813353</v>
       </c>
     </row>
@@ -4826,72 +4802,66 @@
         <v>1.161836180871636e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3344576158358559</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.466847922728168</v>
+        <v>4.022919898811634e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.02450358099580315</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.022919898811634e-06</v>
+        <v>0.1718043490398586</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02450358099580315</v>
+        <v>0.03011465141370384</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1718043490398586</v>
+        <v>1.693906839214693</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03011465141370384</v>
+        <v>1.606982713155787</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.613732459144358</v>
+        <v>4.049000448241938</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.606982713155787</v>
+        <v>2.907109355956193e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.049000448241938</v>
+        <v>81761484.27157857</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.907109355956193e-15</v>
+        <v>1.384964929360008e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>81761484.27157857</v>
+        <v>19.43385252005737</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.384964929360008e-06</v>
+        <v>0.0001270441007674375</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>19.43385252005737</v>
+        <v>8.640978521768531</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001270441007674375</v>
+        <v>1.309746585003204</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.640978521768531</v>
+        <v>0.009485939596720129</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.309746585003204</v>
+        <v>3.009959040813334</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009485939596720129</v>
+        <v>0.951963889049063</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.009959040813334</v>
+        <v>1.753703130808159</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.951963889049063</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.753703130808159</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2124835555078122</v>
       </c>
     </row>
@@ -4906,72 +4876,66 @@
         <v>1.165602433094344e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3869775971286717</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.447850288178633</v>
+        <v>4.025559339135288e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.02037649585377289</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.025559339135288e-06</v>
+        <v>0.168914886630878</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02037649585377289</v>
+        <v>0.02894234933397421</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.168914886630878</v>
+        <v>1.703942266367905</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02894234933397421</v>
+        <v>1.83231385168766</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.622018687057108</v>
+        <v>3.920740086626718</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.83231385168766</v>
+        <v>3.453268165598038e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.920740086626718</v>
+        <v>69277016.50685868</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.453268165598038e-15</v>
+        <v>1.64084413745526e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>69277016.50685868</v>
+        <v>16.573287229064</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.64084413745526e-06</v>
+        <v>0.0001269501544656314</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>16.573287229064</v>
+        <v>6.950342178976292</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001269501544656314</v>
+        <v>1.562809152183429</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.950342178976292</v>
+        <v>0.006132613662407449</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.562809152183429</v>
+        <v>3.170470396178159</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006132613662407449</v>
+        <v>0.952326639963736</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.170470396178159</v>
+        <v>1.764724070981174</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.952326639963736</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.764724070981174</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1946435855296533</v>
       </c>
     </row>
@@ -4986,72 +4950,66 @@
         <v>1.170207004613981e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.4265123164175226</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.439122454377883</v>
+        <v>4.027577661296885e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.01400998736275364</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.027577661296885e-06</v>
+        <v>0.1657426552136268</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01400998736275364</v>
+        <v>0.02766122138209401</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1657426552136268</v>
+        <v>1.697302378247323</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02766122138209401</v>
+        <v>1.699748788776038</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.616948456548616</v>
+        <v>3.570552337506363</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.699748788776038</v>
+        <v>4.193305241382732e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.570552337506363</v>
+        <v>58004873.05306278</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.193305241382732e-15</v>
+        <v>1.952524137373716e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>58004873.05306278</v>
+        <v>14.10864929866661</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.952524137373716e-06</v>
+        <v>0.0001278881187464102</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>14.10864929866661</v>
+        <v>7.597525816109323</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001278881187464102</v>
+        <v>1.466463343002733</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.597525816109323</v>
+        <v>0.007382008957077947</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.466463343002733</v>
+        <v>3.144785472902368</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007382008957077947</v>
+        <v>0.9517124716430326</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.144785472902368</v>
+        <v>1.749902619857834</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9517124716430326</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.749902619857834</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1931740653125106</v>
       </c>
     </row>
@@ -5066,72 +5024,66 @@
         <v>1.173616371972967e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4510295039907908</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.436468634079537</v>
+        <v>4.028824171315509e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.007298012968922016</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.028824171315509e-06</v>
+        <v>0.1641583853533182</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.007298012968922016</v>
+        <v>0.02699600081726833</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1641583853533182</v>
+        <v>1.678819854178306</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02699600081726833</v>
+        <v>1.736647973259697</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.594945735463655</v>
+        <v>3.565989095682026</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.736647973259697</v>
+        <v>4.204044090270663e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.565989095682026</v>
+        <v>57220167.70381243</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.204044090270663e-15</v>
+        <v>1.970603687045591e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>57220167.70381243</v>
+        <v>13.76466083504189</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.970603687045591e-06</v>
+        <v>0.0001288198315517261</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>13.76466083504189</v>
+        <v>10.12369859930244</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001288198315517261</v>
+        <v>1.216316207070414</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.12369859930244</v>
+        <v>0.01320265092616735</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.216316207070414</v>
+        <v>2.980036051267717</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01320265092616735</v>
+        <v>0.9500698467014541</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.980036051267717</v>
+        <v>1.762909345505441</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9500698467014541</v>
+        <v>13</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.762909345505441</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2073459755051882</v>
       </c>
     </row>
@@ -5146,72 +5098,66 @@
         <v>1.174971344959601e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.4601479158037129</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.436009172923695</v>
+        <v>4.029285795080522e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.0005080574357664569</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.029285795080522e-06</v>
+        <v>0.1628525043612608</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0005080574357664569</v>
+        <v>0.02651520672341977</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1628525043612608</v>
+        <v>1.679781097959121</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02651520672341977</v>
+        <v>1.679018305857616</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.591234864812133</v>
+        <v>3.582789885180548</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.679018305857616</v>
+        <v>4.164708457229911e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.582789885180548</v>
+        <v>57539131.77785001</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.164708457229911e-15</v>
+        <v>1.96861015722829e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>57539131.77785001</v>
+        <v>13.78831554542617</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.96861015722829e-06</v>
+        <v>0.0001359784092684742</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>13.78831554542617</v>
+        <v>11.09940289417878</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001359784092684742</v>
+        <v>1.202210701984263</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.09940289417878</v>
+        <v>0.0167520973587557</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.202210701984263</v>
+        <v>2.917150795877412</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0167520973587557</v>
+        <v>0.9518510635211953</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.917150795877412</v>
+        <v>1.780541496222154</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9518510635211953</v>
+        <v>20</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.780541496222154</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2093258141585701</v>
       </c>
     </row>
@@ -5226,72 +5172,66 @@
         <v>1.173722221572441e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4536641733036906</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.435515312276962</v>
+        <v>4.028928006505667e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.006596396686696411</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.028928006505667e-06</v>
+        <v>0.1604996848100459</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.006596396686696411</v>
+        <v>0.02579731980647436</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1604996848100459</v>
+        <v>1.695108470727011</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02579731980647436</v>
+        <v>1.610267301449646</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.609453119328337</v>
+        <v>3.699960599001263</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.610267301449646</v>
+        <v>3.905108322969298e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.699960599001263</v>
+        <v>64072663.37570325</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.905108322969298e-15</v>
+        <v>1.78563436206627e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>64072663.37570325</v>
+        <v>16.031665378936</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.78563436206627e-06</v>
+        <v>0.0001347266946950431</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>16.031665378936</v>
+        <v>8.823065528395594</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001347266946950431</v>
+        <v>1.394900490400321</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.823065528395594</v>
+        <v>0.01048799966056919</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.394900490400321</v>
+        <v>3.096533410116672</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01048799966056919</v>
+        <v>0.951944323583917</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.096533410116672</v>
+        <v>1.763315106045563</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.951944323583917</v>
+        <v>20</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.763315106045563</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1945130446825359</v>
       </c>
     </row>
@@ -5306,72 +5246,66 @@
         <v>1.168865812692172e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.4352504855889687</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.431918255162308</v>
+        <v>4.027751702957857e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.01334897822783859</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.027751702957857e-06</v>
+        <v>0.1578749425300666</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01334897822783859</v>
+        <v>0.02509753773330667</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1578749425300666</v>
+        <v>1.749984287619378</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02509753773330667</v>
+        <v>1.723855074430066</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.672733823136316</v>
+        <v>3.727257532143099</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.723855074430066</v>
+        <v>3.8481188923344e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.727257532143099</v>
+        <v>64986917.89086788</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.8481188923344e-15</v>
+        <v>1.787124230615055e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>64986917.89086788</v>
+        <v>16.25175858221661</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.787124230615055e-06</v>
+        <v>0.0001450964179480318</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>16.25175858221661</v>
+        <v>7.543386015072111</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001450964179480318</v>
+        <v>1.747060636161978</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.543386015072111</v>
+        <v>0.008256373961922855</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.747060636161978</v>
+        <v>3.120109290621326</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008256373961922855</v>
+        <v>0.955632306484331</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.120109290621326</v>
+        <v>1.706392320550209</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.955632306484331</v>
+        <v>19</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.706392320550209</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1786537169248263</v>
       </c>
     </row>
@@ -5386,72 +5320,66 @@
         <v>1.15960070395809e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4123974473960784</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.424822085310104</v>
+        <v>4.025863547592624e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.01868021395105463</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.025863547592624e-06</v>
+        <v>0.1568197212713766</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01868021395105463</v>
+        <v>0.02493961451250009</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1568197212713766</v>
+        <v>1.761754228717896</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02493961451250009</v>
+        <v>1.661694663148035</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.685975988869682</v>
+        <v>4.000118045036406</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.661694663148035</v>
+        <v>3.341039947078408e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.000118045036406</v>
+        <v>73827650.44884478</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.341039947078408e-15</v>
+        <v>1.580348624949486e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>73827650.44884478</v>
+        <v>18.21041163686067</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.580348624949486e-06</v>
+        <v>0.0001368631946177332</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>18.21041163686067</v>
+        <v>8.523192376497825</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001368631946177332</v>
+        <v>1.415610664263527</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.523192376497825</v>
+        <v>0.009942400534522944</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.415610664263527</v>
+        <v>3.089189453159639</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009942400534522944</v>
+        <v>0.9572062923338194</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.089189453159639</v>
+        <v>1.725416705638369</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9572062923338194</v>
+        <v>19</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.725416705638369</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1889121249261512</v>
       </c>
     </row>
@@ -5466,72 +5394,66 @@
         <v>1.147134161092003e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.3895251876038817</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.417299658647916</v>
+        <v>4.023531082672499e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.02130758287075532</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.023531082672499e-06</v>
+        <v>0.1582938594330915</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02130758287075532</v>
+        <v>0.02551062557628839</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1582938594330915</v>
+        <v>1.785519623191445</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02551062557628839</v>
+        <v>1.842681654424664</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.714689724679325</v>
+        <v>4.173446610082918</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.842681654424664</v>
+        <v>3.069287422002029e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.173446610082918</v>
+        <v>79542852.6874934</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.069287422002029e-15</v>
+        <v>1.472777482944749e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>79542852.6874934</v>
+        <v>19.41958229234383</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.472777482944749e-06</v>
+        <v>0.0001381815672626146</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>19.41958229234383</v>
+        <v>11.72892412809261</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001381815672626146</v>
+        <v>1.13980395359088</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.72892412809261</v>
+        <v>0.01900931502962114</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.13980395359088</v>
+        <v>2.904373528221484</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01900931502962114</v>
+        <v>0.9573150706762897</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.904373528221484</v>
+        <v>1.680828635934436</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9573150706762897</v>
+        <v>19</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.680828635934436</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2098487715223576</v>
       </c>
     </row>
@@ -5546,72 +5468,66 @@
         <v>1.134228823237711e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.3641903367572845</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.409666266105818</v>
+        <v>4.021059615435923e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.0217838335293406</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.021059615435923e-06</v>
+        <v>0.1601324771780096</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0217838335293406</v>
+        <v>0.02611641644360703</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1601324771780096</v>
+        <v>1.784926204755261</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02611641644360703</v>
+        <v>1.686617371514807</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.715485232980952</v>
+        <v>4.15553148452021</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.686617371514807</v>
+        <v>3.095808793666963e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.15553148452021</v>
+        <v>75699127.36409247</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.095808793666963e-15</v>
+        <v>1.541982149942752e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>75699127.36409247</v>
+        <v>17.74009232717112</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.541982149942752e-06</v>
+        <v>0.0001363087781767217</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>17.74009232717112</v>
+        <v>12.1530055733838</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001363087781767217</v>
+        <v>1.155473946827223</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.1530055733838</v>
+        <v>0.02013219920840122</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.155473946827223</v>
+        <v>2.95599325779996</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02013219920840122</v>
+        <v>0.955322401087201</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.95599325779996</v>
+        <v>1.683529100916547</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.955322401087201</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.683529100916547</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2216587866422133</v>
       </c>
     </row>
@@ -5626,72 +5542,66 @@
         <v>1.122478358922972e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.3347763845674496</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.400398356390316</v>
+        <v>4.018637632869259e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.02090615084709097</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.018637632869259e-06</v>
+        <v>0.1614934041715745</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02090615084709097</v>
+        <v>0.02651616025402723</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1614934041715745</v>
+        <v>1.787833481539813</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02651616025402723</v>
+        <v>1.633097402816343</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.721360540573184</v>
+        <v>4.163117753079797</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.633097402816343</v>
+        <v>3.084536358015689e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.163117753079797</v>
+        <v>76597064.18151264</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.084536358015689e-15</v>
+        <v>1.52612365879819e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>76597064.18151264</v>
+        <v>18.09731485555016</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.52612365879819e-06</v>
+        <v>0.0001302912519290405</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>18.09731485555016</v>
+        <v>8.821021330503999</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001302912519290405</v>
+        <v>1.54530494892138</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.821021330503999</v>
+        <v>0.01013801668485877</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.54530494892138</v>
+        <v>3.194499981369042</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01013801668485877</v>
+        <v>0.9564152399984788</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.194499981369042</v>
+        <v>1.70499172385121</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9564152399984788</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.70499172385121</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2110232579865732</v>
       </c>
     </row>
@@ -5706,72 +5616,66 @@
         <v>1.112768842455506e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.3023936491381793</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.388776817586455</v>
+        <v>4.016436088786204e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.01817206510095673</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.016436088786204e-06</v>
+        <v>0.1619517792224527</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01817206510095673</v>
+        <v>0.02655623543995618</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1619517792224527</v>
+        <v>1.787599110393894</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02655623543995618</v>
+        <v>1.598924419757839</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.72049111089233</v>
+        <v>4.211030507307782</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.598924419757839</v>
+        <v>3.014744477476596e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.211030507307782</v>
+        <v>78441544.15005919</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.014744477476596e-15</v>
+        <v>1.490683043095492e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>78441544.15005919</v>
+        <v>18.5499514341992</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.490683043095492e-06</v>
+        <v>0.0001292126848211825</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>18.5499514341992</v>
+        <v>7.081818682894215</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001292126848211825</v>
+        <v>1.637197031628621</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.081818682894215</v>
+        <v>0.006480294707903697</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.637197031628621</v>
+        <v>3.175080547074296</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006480294707903697</v>
+        <v>0.9551299799103703</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.175080547074296</v>
+        <v>1.685729354342701</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9551299799103703</v>
+        <v>14</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.685729354342701</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.209896234794131</v>
       </c>
     </row>
@@ -5786,72 +5690,66 @@
         <v>1.105796180877796e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2710085119411439</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.37631310846815</v>
+        <v>4.014662964548953e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.01352706645939974</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.014662964548953e-06</v>
+        <v>0.1615417505922207</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.01352706645939974</v>
+        <v>0.02627474953952548</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1615417505922207</v>
+        <v>1.788767745697178</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02627474953952548</v>
+        <v>1.682687119574992</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.722281485408931</v>
+        <v>4.108745969231318</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.682687119574992</v>
+        <v>2.893722665196893e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.108745969231318</v>
+        <v>82886980.94437657</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.893722665196893e-15</v>
+        <v>1.410219211510651e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>82886980.94437657</v>
+        <v>19.88060279967497</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.410219211510651e-06</v>
+        <v>0.0001403737580924765</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>19.88060279967497</v>
+        <v>8.463148950598232</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001403737580924765</v>
+        <v>1.268138203715324</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.463148950598232</v>
+        <v>0.01005425500472172</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.268138203715324</v>
+        <v>2.934459026330693</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01005425500472172</v>
+        <v>0.9539875271277457</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.934459026330693</v>
+        <v>1.660279567224923</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9539875271277457</v>
+        <v>14</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.660279567224923</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2130942459024586</v>
       </c>
     </row>
@@ -5866,72 +5764,66 @@
         <v>1.101705151892873e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.2464196585056758</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.366821206729049</v>
+        <v>4.013468453707046e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.008234339248001727</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.013468453707046e-06</v>
+        <v>0.1598711693788557</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.008234339248001727</v>
+        <v>0.02562243306305039</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1598711693788557</v>
+        <v>1.767033393435342</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02562243306305039</v>
+        <v>1.864175459427606</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.694091192138973</v>
+        <v>3.88429891581454</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.864175459427606</v>
+        <v>3.23780135731963e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.88429891581454</v>
+        <v>75334571.7909269</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.23780135731963e-15</v>
+        <v>1.543224512328585e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>75334571.7909269</v>
+        <v>18.37548661866607</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.543224512328585e-06</v>
+        <v>0.0001697047815018518</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>18.37548661866607</v>
+        <v>10.63413914907627</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001697047815018518</v>
+        <v>1.141547589099274</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.63413914907627</v>
+        <v>0.01919105086622583</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.141547589099274</v>
+        <v>2.619392615533612</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01919105086622583</v>
+        <v>0.9531736648120626</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.619392615533612</v>
+        <v>1.724356149413943</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9531736648120626</v>
+        <v>16</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.724356149413943</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2142694473076193</v>
       </c>
     </row>
@@ -5946,72 +5838,66 @@
         <v>1.100022485742754e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.2307029958051856</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.363262257472997</v>
+        <v>4.012802005340894e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.004149776476406289</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.012802005340894e-06</v>
+        <v>0.1570157904572969</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.004149776476406289</v>
+        <v>0.02466708482021776</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1570157904572969</v>
+        <v>1.763535073531306</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02466708482021776</v>
+        <v>1.733273067528043</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.691207711425427</v>
+        <v>3.589248402887422</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.733273067528043</v>
+        <v>3.792001115243036e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.589248402887422</v>
+        <v>64215074.16661087</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.792001115243036e-15</v>
+        <v>1.810088812068692e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>64215074.16661087</v>
+        <v>15.63660384363603</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.810088812068692e-06</v>
+        <v>0.0001841408534421627</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>15.63660384363603</v>
+        <v>10.93566150693019</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001841408534421627</v>
+        <v>1.155063362013074</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.93566150693019</v>
+        <v>0.02202116391632008</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.155063362013074</v>
+        <v>2.657939720620792</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02202116391632008</v>
+        <v>0.9520943139910368</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.657939720620792</v>
+        <v>1.708103219561085</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9520943139910368</v>
+        <v>11</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.708103219561085</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2198851524995057</v>
       </c>
     </row>
@@ -6026,72 +5912,66 @@
         <v>1.099674338512232e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2232267275787969</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.363599132735899</v>
+        <v>4.01251672028132e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>-0.001203711642915758</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.01251672028132e-06</v>
+        <v>0.1542580434914578</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.001203711642915758</v>
+        <v>0.02379320146690144</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1542580434914578</v>
+        <v>1.785159834597737</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02379320146690144</v>
+        <v>1.773782455125862</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.715644543022983</v>
+        <v>3.585480670286324</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.773782455125862</v>
+        <v>3.799974803725654e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.585480670286324</v>
+        <v>64539576.6797694</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.799974803725654e-15</v>
+        <v>1.817280128637181e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>64539576.6797694</v>
+        <v>15.82825148893791</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.817280128637181e-06</v>
+        <v>0.0001577221787480605</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>15.82825148893791</v>
+        <v>9.493366636113098</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001577221787480605</v>
+        <v>1.313224772783135</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.493366636113098</v>
+        <v>0.01421455522853876</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.313224772783135</v>
+        <v>2.939351711056957</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01421455522853876</v>
+        <v>0.954286496914613</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.939351711056957</v>
+        <v>1.706643354637142</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.954286496914613</v>
+        <v>10</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.706643354637142</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2177406467491573</v>
       </c>
     </row>
@@ -6106,72 +5986,66 @@
         <v>1.099637970806807e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2234454821331223</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.363322668052756</v>
+        <v>4.012526285700878e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.001322602818151051</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.012526285700878e-06</v>
+        <v>0.151885075663405</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.001322602818151051</v>
+        <v>0.02306775524775609</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.151885075663405</v>
+        <v>1.793968854281695</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02306775524775609</v>
+        <v>1.602021028858939</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.730724078954422</v>
+        <v>4.029096778841192</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.602021028858939</v>
+        <v>3.009262612889161e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.029096778841192</v>
+        <v>80205678.80833149</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.009262612889161e-15</v>
+        <v>1.468486428993782e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>80205678.80833149</v>
+        <v>19.35843867335877</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.468486428993782e-06</v>
+        <v>0.0001325274600810387</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>19.35843867335877</v>
+        <v>8.835778154237383</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001325274600810387</v>
+        <v>1.199872554272481</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.835778154237383</v>
+        <v>0.01034654810111055</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.199872554272481</v>
+        <v>2.92825959075174</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01034654810111055</v>
+        <v>0.9530785701642464</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.92825959075174</v>
+        <v>1.695244245798628</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9530785701642464</v>
+        <v>15</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.695244245798628</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2304889986193495</v>
       </c>
     </row>
@@ -6186,72 +6060,66 @@
         <v>1.099100399811917e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.23137846977197</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.357807786421843</v>
+        <v>4.012817508276814e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.00401387771111591</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.012817508276814e-06</v>
+        <v>0.1497785132080388</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.00401387771111591</v>
+        <v>0.02244727958141542</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1497785132080388</v>
+        <v>1.809907292463643</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02244727958141542</v>
+        <v>1.74186265109403</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.752553576045212</v>
+        <v>4.199253148982496</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.74186265109403</v>
+        <v>2.258566343301076e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.199253148982496</v>
+        <v>104776395.1305927</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.258566343301076e-15</v>
+        <v>1.12685781444974e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>104776395.1305927</v>
+        <v>24.79475131049307</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.12685781444974e-06</v>
+        <v>0.0001343529830890414</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>24.79475131049307</v>
+        <v>8.651545706546292</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001343529830890414</v>
+        <v>1.281462941003092</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.651545706546292</v>
+        <v>0.01005621909411583</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.281462941003092</v>
+        <v>2.853558365855446</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01005621909411583</v>
+        <v>0.9525624114529273</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.853558365855446</v>
+        <v>1.671023978939911</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9525624114529273</v>
+        <v>15</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.671023978939911</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2231682747746579</v>
       </c>
     </row>
@@ -6266,72 +6134,66 @@
         <v>1.097327699446827e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2477737710718165</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.342527652206915</v>
+        <v>4.013434129231204e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.007323327657214477</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.013434129231204e-06</v>
+        <v>0.1479947832715522</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.007323327657214477</v>
+        <v>0.02195391148966059</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1479947832715522</v>
+        <v>1.8296277966422</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02195391148966059</v>
+        <v>1.898056977438563</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.777643927193888</v>
+        <v>4.180035438416458</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.898056977438563</v>
+        <v>2.279381597594338e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.180035438416458</v>
+        <v>104762141.9215284</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.279381597594338e-15</v>
+        <v>1.129872231650772e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>104762141.9215284</v>
+        <v>25.01645551418134</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.129872231650772e-06</v>
+        <v>0.0001366522061429172</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>25.01645551418134</v>
+        <v>7.843634629087267</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001366522061429172</v>
+        <v>1.33337141963637</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.843634629087267</v>
+        <v>0.008407199590851898</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.33337141963637</v>
+        <v>2.96996677899581</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.008407199590851898</v>
+        <v>0.9541326340361216</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.96996677899581</v>
+        <v>1.681868705212387</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9541326340361216</v>
+        <v>15</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.681868705212387</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.203054217315075</v>
       </c>
     </row>
@@ -6346,72 +6208,66 @@
         <v>1.093650208199312e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2738921518927928</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.31322217587667</v>
+        <v>4.01445320060076e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.01130591151712953</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.01445320060076e-06</v>
+        <v>0.146890120945785</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.01130591151712953</v>
+        <v>0.02170252936361933</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.146890120945785</v>
+        <v>1.794559716044783</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02170252936361933</v>
+        <v>1.774105903445153</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.734303219219674</v>
+        <v>4.112169212288473</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.774105903445153</v>
+        <v>2.355239144625041e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.112169212288473</v>
+        <v>99997735.17083907</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.355239144625041e-15</v>
+        <v>1.174665782106091e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>99997735.17083907</v>
+        <v>23.55132461547235</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.174665782106091e-06</v>
+        <v>0.0001488986652836131</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>23.55132461547235</v>
+        <v>7.976240045006335</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001488986652836131</v>
+        <v>1.400879109867646</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.976240045006335</v>
+        <v>0.009472993427355846</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.400879109867646</v>
+        <v>2.946220559846868</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.009472993427355846</v>
+        <v>0.9527837723552057</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.946220559846868</v>
+        <v>1.693529186715272</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9527837723552057</v>
+        <v>9</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.693529186715272</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1892870763391237</v>
       </c>
     </row>
@@ -6426,72 +6282,66 @@
         <v>1.087636102772922e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3090401322796088</v>
+        <v>3.318679885242199e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.267602362977638</v>
+        <v>4.015884506179955e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.318679885242199e-07</v>
+        <v>0.01473609564465321</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.015884506179955e-06</v>
+        <v>0.1462537068735657</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.01473609564465321</v>
+        <v>0.02160596765989828</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1462537068735657</v>
+        <v>1.784329086755228</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02160596765989828</v>
+        <v>1.73137893146428</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.714537826122064</v>
+        <v>3.838072041063429</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.73137893146428</v>
+        <v>2.703651564175008e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.838072041063429</v>
+        <v>84534075.06591746</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.703651564175008e-15</v>
+        <v>1.380665669069308e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>84534075.06591746</v>
+        <v>19.32032070112793</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.380665669069308e-06</v>
+        <v>0.0001559340802640604</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>19.32032070112793</v>
+        <v>9.734787894375193</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001559340802640604</v>
+        <v>1.230640448764191</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.734787894375193</v>
+        <v>0.01477726391838052</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.230640448764191</v>
+        <v>2.778497765826826</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01477726391838052</v>
+        <v>0.9530432838910942</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.778497765826826</v>
+        <v>1.722457001190656</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9530432838910942</v>
+        <v>9</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.722457001190656</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1952086118345887</v>
       </c>
     </row>
@@ -6868,7 +6718,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494551287531226</v>
+        <v>1.481919015889813</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.677677066379737</v>
@@ -6957,7 +6807,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.498947780656585</v>
+        <v>1.487793025757106</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.618350309189294</v>
@@ -7046,7 +6896,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.507201068323538</v>
+        <v>1.497457656145417</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.683225133307397</v>
@@ -7135,7 +6985,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.503995508554365</v>
+        <v>1.496420563047989</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.667879327847482</v>
@@ -7224,7 +7074,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.492296727019832</v>
+        <v>1.486898919680361</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.447252358804335</v>
@@ -7313,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.488158869950954</v>
+        <v>1.481721478730729</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.590865927606327</v>
@@ -7402,7 +7252,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.502921625131731</v>
+        <v>1.495910271646745</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.557115230071854</v>
@@ -7491,7 +7341,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.484060496774751</v>
+        <v>1.475899423959939</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.606112538387642</v>
@@ -7580,7 +7430,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.501963724925403</v>
+        <v>1.493747336258088</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.661703269074855</v>
@@ -7669,7 +7519,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.504811664786342</v>
+        <v>1.49237382175555</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.57103049635406</v>
@@ -7758,7 +7608,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.519713793612346</v>
+        <v>1.499274028495307</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.423339030326027</v>
@@ -7847,7 +7697,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.531766361686855</v>
+        <v>1.515305462610948</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.530229265620315</v>
@@ -7936,7 +7786,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.536497868667713</v>
+        <v>1.518063717928419</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.515881934320655</v>
@@ -8025,7 +7875,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525146524513189</v>
+        <v>1.504536317140747</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.421028975703856</v>
@@ -8114,7 +7964,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.527794912225337</v>
+        <v>1.511216701930414</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.562732748715343</v>
@@ -8203,7 +8053,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.530736701963396</v>
+        <v>1.505149239308866</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.536043302749286</v>
@@ -8292,7 +8142,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545835369065696</v>
+        <v>1.520081311096808</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.594466202606279</v>
@@ -8381,7 +8231,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.54530340594823</v>
+        <v>1.51913394774534</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.50532489184804</v>
@@ -8470,7 +8320,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.53925595813677</v>
+        <v>1.512497429613775</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.63669969190271</v>
@@ -8559,7 +8409,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.55525446317922</v>
+        <v>1.523402923688349</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.637420384439253</v>
@@ -8648,7 +8498,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.567261420923143</v>
+        <v>1.539217093121747</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.671345210939081</v>
@@ -8737,7 +8587,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.565009197483576</v>
+        <v>1.521650506522714</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.689352080980615</v>
@@ -8826,7 +8676,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.560427457817255</v>
+        <v>1.524434990472181</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.615674217505235</v>
@@ -8915,7 +8765,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.544859524098148</v>
+        <v>1.516362769543305</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.624087521695707</v>
@@ -9004,7 +8854,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540683979411356</v>
+        <v>1.512279630258221</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.627227386568374</v>
@@ -9093,7 +8943,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.547954522093205</v>
+        <v>1.514603748882398</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.337970167212343</v>
@@ -9182,7 +9032,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531520919213418</v>
+        <v>1.500868546988636</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.637148197405937</v>
@@ -9271,7 +9121,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.494536928846954</v>
+        <v>1.471434783553452</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.558799756914156</v>
@@ -9360,7 +9210,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.504539933609743</v>
+        <v>1.480136714348002</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.536899058362185</v>
@@ -9449,7 +9299,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.517134736969781</v>
+        <v>1.488623113645058</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.547123634282594</v>
@@ -9538,7 +9388,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.505755276780714</v>
+        <v>1.487202954286984</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.606823172249106</v>
@@ -9627,7 +9477,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.508715559772167</v>
+        <v>1.4891106877901</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.653839309195835</v>
@@ -9716,7 +9566,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.499963336486053</v>
+        <v>1.481432088949757</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.565364462655535</v>
@@ -9805,7 +9655,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.504043358675614</v>
+        <v>1.484882070218895</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.604117535813189</v>
@@ -9894,7 +9744,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.502970023050168</v>
+        <v>1.485852219696671</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.638358549017229</v>
@@ -9983,7 +9833,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.47603065952372</v>
+        <v>1.458250354762412</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.589333875479482</v>
@@ -10072,7 +9922,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.496474408421227</v>
+        <v>1.480706931981016</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.342513993286454</v>
@@ -10161,7 +10011,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.490449893803919</v>
+        <v>1.469499666921089</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.562193612746039</v>
@@ -10250,7 +10100,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.49470580375548</v>
+        <v>1.473377720563642</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.594821512881814</v>
@@ -10339,7 +10189,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.508721186740128</v>
+        <v>1.488595686599159</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.406610284432859</v>
@@ -10428,7 +10278,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.51155216943763</v>
+        <v>1.49458769297568</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.641300279962428</v>
@@ -10517,7 +10367,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.530033946585077</v>
+        <v>1.506239123422827</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.479870956027785</v>
@@ -10606,7 +10456,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564880933457993</v>
+        <v>1.535119142392656</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.551781494288371</v>
@@ -10695,7 +10545,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.557118644623302</v>
+        <v>1.538774390400429</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.486314023338323</v>
@@ -10784,7 +10634,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.534919865801313</v>
+        <v>1.520320494477827</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.711424037556537</v>
@@ -10873,7 +10723,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.54607493189234</v>
+        <v>1.521802042481968</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.637517523075514</v>
@@ -10962,7 +10812,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.508576169785932</v>
+        <v>1.500959350727237</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.512329922724541</v>
@@ -11051,7 +10901,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.520759116451769</v>
+        <v>1.511638865858166</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.513303122100721</v>
@@ -11140,7 +10990,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.522764309946826</v>
+        <v>1.513798006558172</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.463402334261923</v>
@@ -11229,7 +11079,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.512994012870739</v>
+        <v>1.503495062771659</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.502726000747596</v>
@@ -11318,7 +11168,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.520725327743221</v>
+        <v>1.513848971296506</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.467252202493055</v>
@@ -11407,7 +11257,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.51388182653297</v>
+        <v>1.508931013675877</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.490458950302277</v>
@@ -11496,7 +11346,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.51735860876834</v>
+        <v>1.515610249265886</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.401239989331395</v>
@@ -11585,7 +11435,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.520187083030337</v>
+        <v>1.5185573635425</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.628100973860986</v>
@@ -11674,7 +11524,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.517615855412052</v>
+        <v>1.511591674796368</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.566344289677297</v>
@@ -11763,7 +11613,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.511056978902847</v>
+        <v>1.506131673195154</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.577013535805996</v>
@@ -11852,7 +11702,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.487258906415248</v>
+        <v>1.489804685036159</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.544465513747721</v>
@@ -11941,7 +11791,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.462469018936359</v>
+        <v>1.467306389691157</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.454065053165657</v>
@@ -12030,7 +11880,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.460763876934459</v>
+        <v>1.462338199465945</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.278962923481009</v>
@@ -12119,7 +11969,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.48011324907113</v>
+        <v>1.484353882604895</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.375370348814449</v>
@@ -12208,7 +12058,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.497979036165753</v>
+        <v>1.495331204082429</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.259088194890012</v>
@@ -12297,7 +12147,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.505385465846066</v>
+        <v>1.504796133894081</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.297319020331955</v>
@@ -12386,7 +12236,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.488918709881127</v>
+        <v>1.482820554180602</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.322154335964963</v>
@@ -12475,7 +12325,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.497999283289693</v>
+        <v>1.488500975110453</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.271313861079393</v>
@@ -12564,7 +12414,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.500412411841456</v>
+        <v>1.487310318193277</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.199408243762298</v>
@@ -12653,7 +12503,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.508577509448559</v>
+        <v>1.493143793277154</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.241948017819814</v>
@@ -12742,7 +12592,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.514452120668621</v>
+        <v>1.495444685850291</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.311607617050602</v>
@@ -12831,7 +12681,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.513277785135514</v>
+        <v>1.497967293880085</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.413745169053504</v>
@@ -13117,7 +12967,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.621796426948458</v>
+        <v>1.593699086080584</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.097530669727456</v>
@@ -13206,7 +13056,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.618250374366632</v>
+        <v>1.587573651720921</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.115035540114523</v>
@@ -13295,7 +13145,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.633870926865717</v>
+        <v>1.602553145839756</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.969129064477231</v>
@@ -13384,7 +13234,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.635955879305828</v>
+        <v>1.604855106181501</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.042272985106069</v>
@@ -13473,7 +13323,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.629949370939974</v>
+        <v>1.597720996964021</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.892813093443564</v>
@@ -13562,7 +13412,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.638152916617346</v>
+        <v>1.598050952617648</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.420076710570552</v>
@@ -13651,7 +13501,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.642699366318343</v>
+        <v>1.596328523092807</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.053943759583393</v>
@@ -13740,7 +13590,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.647733654526071</v>
+        <v>1.594364874232907</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.84267942179675</v>
@@ -13829,7 +13679,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.659531880466772</v>
+        <v>1.601325761386702</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.241501050296344</v>
@@ -13918,7 +13768,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.662899252495716</v>
+        <v>1.604070793341019</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.325267945758609</v>
@@ -14007,7 +13857,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.669889890685719</v>
+        <v>1.606942535132674</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.796821141826374</v>
@@ -14096,7 +13946,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.659835523476304</v>
+        <v>1.602096746428609</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.791768994973507</v>
@@ -14185,7 +14035,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.666930761948226</v>
+        <v>1.608283425591054</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.352551120152487</v>
@@ -14274,7 +14124,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653377040831885</v>
+        <v>1.604073697689061</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.170389102380692</v>
@@ -14363,7 +14213,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.659650295449036</v>
+        <v>1.608253462301212</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.586460469707319</v>
@@ -14452,7 +14302,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.666382655870337</v>
+        <v>1.607042917364631</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.405976823567471</v>
@@ -14541,7 +14391,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.669036266391634</v>
+        <v>1.611962306719431</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.577863115724101</v>
@@ -14630,7 +14480,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.679448539253918</v>
+        <v>1.617375810343203</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.996228570414342</v>
@@ -14719,7 +14569,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.67498384975753</v>
+        <v>1.605343201081344</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.534527508193962</v>
@@ -14808,7 +14658,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.683760039199341</v>
+        <v>1.610959975064641</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.484077410249071</v>
@@ -14897,7 +14747,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.67527220461984</v>
+        <v>1.609868291725367</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.588284449273544</v>
@@ -14986,7 +14836,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.670580842615659</v>
+        <v>1.610157884964988</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.344665373665802</v>
@@ -15075,7 +14925,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.66000828151612</v>
+        <v>1.602349032885379</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.42367189846204</v>
@@ -15164,7 +15014,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663215425648927</v>
+        <v>1.613657506618178</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.077487296380666</v>
@@ -15253,7 +15103,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.661521237587195</v>
+        <v>1.617525817980808</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.46745747478769</v>
@@ -15342,7 +15192,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.660758272866332</v>
+        <v>1.614902721956241</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.012948595231188</v>
@@ -15431,7 +15281,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.661469131021693</v>
+        <v>1.617495454296407</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.355082513148221</v>
@@ -15520,7 +15370,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.657534915611405</v>
+        <v>1.611081490887935</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.064383094545077</v>
@@ -15609,7 +15459,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.665859134424057</v>
+        <v>1.601492416686447</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.315508712135406</v>
@@ -15698,7 +15548,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.664017537140663</v>
+        <v>1.60376897926505</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.253402538319379</v>
@@ -15787,7 +15637,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.661291202599446</v>
+        <v>1.614394969327902</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.486886863938816</v>
@@ -15876,7 +15726,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.661713031985091</v>
+        <v>1.6091435483288</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.078960197254939</v>
@@ -15965,7 +15815,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.65370693047282</v>
+        <v>1.60586617849681</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.397603963177612</v>
@@ -16054,7 +15904,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.655995654600543</v>
+        <v>1.610442486155754</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.116841525634717</v>
@@ -16143,7 +15993,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.656063525299971</v>
+        <v>1.615122282224592</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.190015220076474</v>
@@ -16232,7 +16082,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.662729407390181</v>
+        <v>1.622524273699024</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.393199734916015</v>
@@ -16321,7 +16171,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.667065289021301</v>
+        <v>1.627446733759684</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.615438126297914</v>
@@ -16410,7 +16260,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.671789004487764</v>
+        <v>1.629257543659148</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.246637238579845</v>
@@ -16499,7 +16349,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.678648652084124</v>
+        <v>1.63111065784254</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.032016788926811</v>
@@ -16588,7 +16438,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.688156781624441</v>
+        <v>1.628103939266063</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.422843418905733</v>
@@ -16677,7 +16527,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.695720734543857</v>
+        <v>1.64001866015533</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.548614023514669</v>
@@ -16766,7 +16616,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.701992892467348</v>
+        <v>1.639586993240502</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.082556186516161</v>
@@ -16855,7 +16705,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.699426706593438</v>
+        <v>1.632056375594835</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.309605815555041</v>
@@ -16944,7 +16794,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.695285112890496</v>
+        <v>1.645754194221828</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.340277669539957</v>
@@ -17033,7 +16883,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679017705626465</v>
+        <v>1.637095946290063</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.134006830968135</v>
@@ -17122,7 +16972,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.682377203325611</v>
+        <v>1.631489730301076</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.879034534337896</v>
@@ -17211,7 +17061,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.669548051246916</v>
+        <v>1.631477351277953</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.147876517574981</v>
@@ -17300,7 +17150,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.675353981717577</v>
+        <v>1.636876151977586</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.068925410544864</v>
@@ -17389,7 +17239,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672121401203403</v>
+        <v>1.636663479055793</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.465705779485158</v>
@@ -17478,7 +17328,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.662792194992194</v>
+        <v>1.628887089205816</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.416597703736489</v>
@@ -17567,7 +17417,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657813044665944</v>
+        <v>1.621969792463802</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.389914545763946</v>
@@ -17656,7 +17506,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.645319812350718</v>
+        <v>1.612424831977837</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.366948520760339</v>
@@ -17745,7 +17595,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.643628867600352</v>
+        <v>1.608282226443207</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.548642917823274</v>
@@ -17834,7 +17684,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.64032773587837</v>
+        <v>1.607805941419703</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.030373936858792</v>
@@ -17923,7 +17773,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.635134290060203</v>
+        <v>1.606444404124759</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.150401111315611</v>
@@ -18012,7 +17862,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.622097892348439</v>
+        <v>1.591799438071608</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.345652232177158</v>
@@ -18101,7 +17951,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.619740574881583</v>
+        <v>1.597345200418513</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.867816590628977</v>
@@ -18190,7 +18040,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.613369395802936</v>
+        <v>1.600129300918295</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.822860799816276</v>
@@ -18279,7 +18129,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.619820641973306</v>
+        <v>1.604722076185069</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.104660622457363</v>
@@ -18368,7 +18218,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.630840487175438</v>
+        <v>1.614839417403323</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.176953949963215</v>
@@ -18457,7 +18307,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.625650269612201</v>
+        <v>1.605031737112782</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.091324248839669</v>
@@ -18546,7 +18396,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.622090067913186</v>
+        <v>1.601049080744294</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.864200603630469</v>
@@ -18635,7 +18485,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.622009185823057</v>
+        <v>1.599206910880776</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.993997624870852</v>
@@ -18724,7 +18574,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.628498873618152</v>
+        <v>1.601572959000896</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.986236437522892</v>
@@ -18813,7 +18663,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.639640713294115</v>
+        <v>1.605376137838771</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.889286773775162</v>
@@ -18902,7 +18752,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.639350607690979</v>
+        <v>1.607768217281392</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.073580999535832</v>
@@ -18991,7 +18841,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.652280132994222</v>
+        <v>1.611500042235749</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.138630208090525</v>
@@ -19080,7 +18930,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.648606866853566</v>
+        <v>1.612140649257411</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.974076714491787</v>
@@ -19366,7 +19216,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.579125390605682</v>
+        <v>1.541674608135451</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.321260143082301</v>
@@ -19455,7 +19305,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.578434354788664</v>
+        <v>1.545287678120186</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.919839137486178</v>
@@ -19544,7 +19394,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584892708775954</v>
+        <v>1.548216111379889</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.89505037166419</v>
@@ -19633,7 +19483,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.577240646442517</v>
+        <v>1.538982448194603</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.263660269445479</v>
@@ -19722,7 +19572,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.587016860017303</v>
+        <v>1.549309274273083</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.733730331695876</v>
@@ -19811,7 +19661,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.602054305838892</v>
+        <v>1.5629516392372</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.276182606233966</v>
@@ -19900,7 +19750,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.61375193854146</v>
+        <v>1.571601315977358</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.88044703530832</v>
@@ -19989,7 +19839,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606617892768655</v>
+        <v>1.565250511606957</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.700411726761574</v>
@@ -20078,7 +19928,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.606166431745306</v>
+        <v>1.565187224666413</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.878955059895627</v>
@@ -20167,7 +20017,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610754934626716</v>
+        <v>1.570241258498696</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.268273184295114</v>
@@ -20256,7 +20106,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.604574288074578</v>
+        <v>1.565364120615538</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.673356700386736</v>
@@ -20345,7 +20195,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615152854140184</v>
+        <v>1.572680774127895</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.962294811146676</v>
@@ -20434,7 +20284,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.61363018917157</v>
+        <v>1.567856157938782</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.761790895944257</v>
@@ -20523,7 +20373,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.599332264887078</v>
+        <v>1.556417037812038</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.151547503658676</v>
@@ -20612,7 +20462,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.581045918705543</v>
+        <v>1.545416057443348</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.242177620643779</v>
@@ -20701,7 +20551,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.576338763390142</v>
+        <v>1.534050663230108</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.076347879826463</v>
@@ -20790,7 +20640,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.58353537516471</v>
+        <v>1.536357347972471</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.997241279171133</v>
@@ -20879,7 +20729,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.585927817317555</v>
+        <v>1.532654819331235</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.184909939476116</v>
@@ -20968,7 +20818,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586164498317383</v>
+        <v>1.53111203720471</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.972509169849662</v>
@@ -21057,7 +20907,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571975883922256</v>
+        <v>1.515608967367515</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.79973532345453</v>
@@ -21146,7 +20996,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.563668509192611</v>
+        <v>1.510929463143748</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.091404060023785</v>
@@ -21235,7 +21085,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.553840284580579</v>
+        <v>1.499927171402743</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.034737731909265</v>
@@ -21324,7 +21174,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.560102830020441</v>
+        <v>1.509785228427297</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.090404130447218</v>
@@ -21413,7 +21263,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.552866494452737</v>
+        <v>1.507199712593692</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.141481391079168</v>
@@ -21502,7 +21352,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.545960127188458</v>
+        <v>1.496108853906029</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.124190472613545</v>
@@ -21591,7 +21441,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.549380162121269</v>
+        <v>1.499000350204208</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.985163949854353</v>
@@ -21680,7 +21530,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.548871405290714</v>
+        <v>1.497998202041208</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.937827547541628</v>
@@ -21769,7 +21619,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.547600455196851</v>
+        <v>1.492605670703106</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.061971476055728</v>
@@ -21858,7 +21708,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.558750004001947</v>
+        <v>1.494860407490262</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.010086772463344</v>
@@ -21947,7 +21797,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565282434052569</v>
+        <v>1.493481808001064</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.786851142995614</v>
@@ -22036,7 +21886,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.560651373047711</v>
+        <v>1.503861283842683</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.97878048311585</v>
@@ -22125,7 +21975,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.55755436395862</v>
+        <v>1.502485759269959</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.191343122664952</v>
@@ -22214,7 +22064,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.553969229839524</v>
+        <v>1.504514331314324</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.963841069457976</v>
@@ -22303,7 +22153,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.559203661568571</v>
+        <v>1.509948088368564</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.687759629193982</v>
@@ -22392,7 +22242,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.554678108853077</v>
+        <v>1.507674958295516</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.29723230592094</v>
@@ -22481,7 +22331,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.544126342722879</v>
+        <v>1.496720953302611</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.1427713711893</v>
@@ -22570,7 +22420,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.552532828671829</v>
+        <v>1.502125380628757</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.982342563575287</v>
@@ -22659,7 +22509,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.548849649931947</v>
+        <v>1.495543751784306</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.231918186816447</v>
@@ -22748,7 +22598,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.556017254153372</v>
+        <v>1.501143052045328</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.191213343170947</v>
@@ -22837,7 +22687,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.572789811835668</v>
+        <v>1.516792769652488</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.245446929480805</v>
@@ -22926,7 +22776,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.569556812321742</v>
+        <v>1.514678362688918</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.412932340068095</v>
@@ -23015,7 +22865,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.563800501757344</v>
+        <v>1.505084937073375</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.377489631975439</v>
@@ -23104,7 +22954,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.557809207112457</v>
+        <v>1.507385318381497</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.258181072355927</v>
@@ -23193,7 +23043,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.56967501983743</v>
+        <v>1.525751416329961</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.834434851976134</v>
@@ -23282,7 +23132,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.577129842361649</v>
+        <v>1.530517988693174</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.170867371635357</v>
@@ -23371,7 +23221,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.55891690570567</v>
+        <v>1.50718632624332</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.661533984559379</v>
@@ -23460,7 +23310,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.537218177695671</v>
+        <v>1.496922538058086</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.75343488712537</v>
@@ -23549,7 +23399,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.543548375754252</v>
+        <v>1.508081895143493</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.7494445366822</v>
@@ -23638,7 +23488,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.536471724473101</v>
+        <v>1.497303881333963</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.609869045670971</v>
@@ -23727,7 +23577,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.544913718194337</v>
+        <v>1.502708660284832</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.659032459946488</v>
@@ -23816,7 +23666,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532083044673316</v>
+        <v>1.496793135126482</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.63888647872726</v>
@@ -23905,7 +23755,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.531946997929906</v>
+        <v>1.493415704373953</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.574525528700819</v>
@@ -23994,7 +23844,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.525159536320503</v>
+        <v>1.487495434615609</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.538805261022856</v>
@@ -24083,7 +23933,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.514421905571266</v>
+        <v>1.478613555001336</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.68193063027759</v>
@@ -24172,7 +24022,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.507545392046896</v>
+        <v>1.474047105268524</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.75414543116911</v>
@@ -24261,7 +24111,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.500320874920241</v>
+        <v>1.469376488785622</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.733882459030241</v>
@@ -24350,7 +24200,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.498244553814399</v>
+        <v>1.473129168377609</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.629118006972548</v>
@@ -24439,7 +24289,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.500498260239243</v>
+        <v>1.471474614857538</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.693082071339816</v>
@@ -24528,7 +24378,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.49039655969811</v>
+        <v>1.461996799822916</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.553664965786228</v>
@@ -24617,7 +24467,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.485442103285587</v>
+        <v>1.462103317855328</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.73850332817853</v>
@@ -24706,7 +24556,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.505985463888889</v>
+        <v>1.477639170488023</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.683969202569789</v>
@@ -24795,7 +24645,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.506904561852788</v>
+        <v>1.477287088251473</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.277079205382108</v>
@@ -24884,7 +24734,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.501774423160484</v>
+        <v>1.469961672157429</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.045719812610398</v>
@@ -24973,7 +24823,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.493489004778909</v>
+        <v>1.463029309110145</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.858761097326396</v>
@@ -25062,7 +24912,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.485370580827204</v>
+        <v>1.457750030412676</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.585840512823369</v>
@@ -25151,7 +25001,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.493991148527673</v>
+        <v>1.465838996194324</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.727416494909274</v>
@@ -25240,7 +25090,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.486099486998528</v>
+        <v>1.455608706506457</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.491402918767394</v>
@@ -25329,7 +25179,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.478415457168929</v>
+        <v>1.452668765799824</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.74055113573739</v>
@@ -25615,7 +25465,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.432333413009857</v>
+        <v>1.405508439971471</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.206256251941746</v>
@@ -25704,7 +25554,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.433854063286679</v>
+        <v>1.408367833400319</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.134346615152675</v>
@@ -25793,7 +25643,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.421509255165901</v>
+        <v>1.398503660225048</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.232340496645236</v>
@@ -25882,7 +25732,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.42476836864445</v>
+        <v>1.397931022125249</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.018199934950815</v>
@@ -25971,7 +25821,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.450976399318006</v>
+        <v>1.425609098838705</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.202476309957344</v>
@@ -26060,7 +25910,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.464159536080765</v>
+        <v>1.436811987777105</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.214985488804618</v>
@@ -26149,7 +25999,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.461683367681747</v>
+        <v>1.426967940692832</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.183425501246544</v>
@@ -26238,7 +26088,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.457102601916514</v>
+        <v>1.425089449720768</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.232738171506723</v>
@@ -26327,7 +26177,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.433134649013703</v>
+        <v>1.404769574256745</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.247351571746993</v>
@@ -26416,7 +26266,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.443107297958106</v>
+        <v>1.419028852127272</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.329081177048524</v>
@@ -26505,7 +26355,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.438215396580327</v>
+        <v>1.418722036399777</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.269514046934852</v>
@@ -26594,7 +26444,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.477571155678479</v>
+        <v>1.452984036236317</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.127562294593118</v>
@@ -26683,7 +26533,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.491644840608383</v>
+        <v>1.462658851310138</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.211295184187974</v>
@@ -26772,7 +26622,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.486330582432631</v>
+        <v>1.457980094094601</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.164682218579235</v>
@@ -26861,7 +26711,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.488295251650072</v>
+        <v>1.450271031476693</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.238265551386534</v>
@@ -26950,7 +26800,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.46589070769276</v>
+        <v>1.427776892186712</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.240636710503805</v>
@@ -27039,7 +26889,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.465028952203042</v>
+        <v>1.42685608938615</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.179411599586212</v>
@@ -27128,7 +26978,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.49858613835155</v>
+        <v>1.453131323911436</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.137829985731306</v>
@@ -27217,7 +27067,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.494101833010502</v>
+        <v>1.445100694853298</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.220797300658008</v>
@@ -27306,7 +27156,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.505616318513004</v>
+        <v>1.443712544498365</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.186947037324238</v>
@@ -27395,7 +27245,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.455294457250985</v>
+        <v>1.414411065065043</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.254214562142572</v>
@@ -27484,7 +27334,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.465303175626072</v>
+        <v>1.427095888544192</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.132900524818208</v>
@@ -27573,7 +27423,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.461511222194702</v>
+        <v>1.424721719105799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.127410929492678</v>
@@ -27662,7 +27512,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.493936715243859</v>
+        <v>1.452371955022141</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.072033615387729</v>
@@ -27751,7 +27601,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.489491264597132</v>
+        <v>1.447488439730134</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.075961426118144</v>
@@ -27840,7 +27690,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.469077403682703</v>
+        <v>1.424284804173614</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.132466148531223</v>
@@ -27929,7 +27779,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.467221996492081</v>
+        <v>1.424781391113487</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.153338108229563</v>
@@ -28018,7 +27868,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.471078174136353</v>
+        <v>1.423491941814575</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.107948836588267</v>
@@ -28107,7 +27957,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.487616505251707</v>
+        <v>1.4311488400107</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.109808395138268</v>
@@ -28196,7 +28046,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.513121569475699</v>
+        <v>1.446478907416286</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.156723096131138</v>
@@ -28285,7 +28135,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.482404460221867</v>
+        <v>1.44120846827462</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.08825846785147</v>
@@ -28374,7 +28224,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.49192179200455</v>
+        <v>1.447925005809367</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.054263180498313</v>
@@ -28463,7 +28313,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.489914763028193</v>
+        <v>1.453436443629455</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.033743573087697</v>
@@ -28552,7 +28402,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.493112427255871</v>
+        <v>1.45405823210982</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.11682778168931</v>
@@ -28641,7 +28491,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.499135042483488</v>
+        <v>1.463573213575709</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.202210608592158</v>
@@ -28730,7 +28580,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.481591298388714</v>
+        <v>1.446850390319059</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.107122539574715</v>
@@ -28819,7 +28669,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.479987779638044</v>
+        <v>1.444988404241021</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.065648155750657</v>
@@ -28908,7 +28758,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.482882930356957</v>
+        <v>1.448889237820001</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.13616983894796</v>
@@ -28997,7 +28847,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.487858765122711</v>
+        <v>1.451134790530207</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.162404661085745</v>
@@ -29086,7 +28936,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.499985883006993</v>
+        <v>1.459092934663313</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.94255396894326</v>
@@ -29175,7 +29025,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.513467424616922</v>
+        <v>1.47692714756347</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.139812039395222</v>
@@ -29264,7 +29114,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.480209450708855</v>
+        <v>1.446486755945734</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.174295383258566</v>
@@ -29353,7 +29203,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.473241764603172</v>
+        <v>1.440991112736114</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.110138028178924</v>
@@ -29442,7 +29292,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.470149327643847</v>
+        <v>1.445143752167011</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.124802367095898</v>
@@ -29531,7 +29381,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.472020411203399</v>
+        <v>1.446239374055634</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.038119439563508</v>
@@ -29620,7 +29470,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.48657578844469</v>
+        <v>1.451339224884235</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.160754732248222</v>
@@ -29709,7 +29559,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.453937897694863</v>
+        <v>1.422023656746402</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.187549658157553</v>
@@ -29798,7 +29648,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.453114731757387</v>
+        <v>1.420247192075179</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.157437212391907</v>
@@ -29887,7 +29737,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.43643937178573</v>
+        <v>1.40779904940552</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.113469552624473</v>
@@ -29976,7 +29826,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.446253017226115</v>
+        <v>1.41443863917568</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.059349297500747</v>
@@ -30065,7 +29915,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.463501795161612</v>
+        <v>1.425026750404863</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.131826076432971</v>
@@ -30154,7 +30004,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.421433631803392</v>
+        <v>1.388688228336207</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.161719100472602</v>
@@ -30243,7 +30093,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.38508740511137</v>
+        <v>1.356360248257808</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.207178464249165</v>
@@ -30332,7 +30182,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.370414751437546</v>
+        <v>1.346449112914826</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.18219950648143</v>
@@ -30421,7 +30271,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.371249493564963</v>
+        <v>1.346701580885991</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.162702533315745</v>
@@ -30510,7 +30360,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.375431334472073</v>
+        <v>1.35251212102228</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.21872212723708</v>
@@ -30599,7 +30449,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.39154279688755</v>
+        <v>1.36061581765104</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.171849444007504</v>
@@ -30688,7 +30538,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.374329521565648</v>
+        <v>1.354023198145746</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.148278835993226</v>
@@ -30777,7 +30627,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.379137970648319</v>
+        <v>1.354976149762422</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.228973837852365</v>
@@ -30866,7 +30716,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.384238823849739</v>
+        <v>1.364274842162087</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.23481345102091</v>
@@ -30955,7 +30805,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.373372454828619</v>
+        <v>1.355714227168691</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.163973283852492</v>
@@ -31044,7 +30894,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.375235532699078</v>
+        <v>1.359630139212309</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.130529184601734</v>
@@ -31133,7 +30983,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.3708299456116</v>
+        <v>1.359750703219305</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.214871975394805</v>
@@ -31222,7 +31072,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.390398894999524</v>
+        <v>1.375710945357995</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.285324355511222</v>
@@ -31311,7 +31161,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.379941447889747</v>
+        <v>1.368707268471857</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.206908783441178</v>
@@ -31400,7 +31250,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.387414186294667</v>
+        <v>1.374619827823431</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.284900917546123</v>
@@ -31489,7 +31339,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.417857201919969</v>
+        <v>1.396420791262044</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.093302108393337</v>
@@ -31578,7 +31428,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.416953489768433</v>
+        <v>1.395066954133244</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.289897808741087</v>
@@ -31864,7 +31714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.557231012101909</v>
+        <v>1.517409083210701</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.751307561558536</v>
@@ -31953,7 +31803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.563932846512261</v>
+        <v>1.524328024962526</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.900536189741614</v>
@@ -32042,7 +31892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.567890166222475</v>
+        <v>1.528291127330138</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.607454178197062</v>
@@ -32131,7 +31981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.562493390712933</v>
+        <v>1.518667997704545</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.680541058624334</v>
@@ -32220,7 +32070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.551598186872944</v>
+        <v>1.505996674700083</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.733827023512671</v>
@@ -32309,7 +32159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542576228609922</v>
+        <v>1.494009589383941</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.681692992413041</v>
@@ -32398,7 +32248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.557272970553748</v>
+        <v>1.508190401731924</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.926605456410537</v>
@@ -32487,7 +32337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.548248183395408</v>
+        <v>1.502529101600143</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.968578369816846</v>
@@ -32576,7 +32426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.556999291822649</v>
+        <v>1.515594356393898</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.848607310067121</v>
@@ -32665,7 +32515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.566406524796842</v>
+        <v>1.523049698702997</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.555119977566725</v>
@@ -32754,7 +32604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.561531499311474</v>
+        <v>1.520376030991134</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.604663192569236</v>
@@ -32843,7 +32693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.558649235731081</v>
+        <v>1.525776581510486</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.690426147066039</v>
@@ -32932,7 +32782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.552271847630039</v>
+        <v>1.519730690588347</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.716544841356023</v>
@@ -33021,7 +32871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.550109665138648</v>
+        <v>1.516706535711141</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.656598181335621</v>
@@ -33110,7 +32960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558808270978</v>
+        <v>1.5218608323103</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.611504830157778</v>
@@ -33199,7 +33049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.560542660010739</v>
+        <v>1.513726797960923</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.745932658255104</v>
@@ -33288,7 +33138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.571876110404698</v>
+        <v>1.522769746392476</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.825303780800829</v>
@@ -33377,7 +33227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.579882162000934</v>
+        <v>1.530830320573035</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.749426316015829</v>
@@ -33466,7 +33316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.56826601725266</v>
+        <v>1.522107195997061</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.611479924256587</v>
@@ -33555,7 +33405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.57816601464701</v>
+        <v>1.534956068032532</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.647889141896293</v>
@@ -33644,7 +33494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581069763562521</v>
+        <v>1.54407345030053</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.858901571900362</v>
@@ -33733,7 +33583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.572197020118291</v>
+        <v>1.536866988411333</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.670171587889203</v>
@@ -33822,7 +33672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.575093948869188</v>
+        <v>1.546480585587813</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.726267624975362</v>
@@ -33911,7 +33761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.575676823701164</v>
+        <v>1.547002535464494</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.605923542102318</v>
@@ -34000,7 +33850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573172970549501</v>
+        <v>1.544503878488908</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.587308745930583</v>
@@ -34089,7 +33939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.594114678597833</v>
+        <v>1.55933583772374</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.690119629298704</v>
@@ -34178,7 +34028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581450824358168</v>
+        <v>1.546144085028922</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.743447216364831</v>
@@ -34267,7 +34117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.577102250623624</v>
+        <v>1.536289188915932</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.605026805636086</v>
@@ -34356,7 +34206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.5680780587486</v>
+        <v>1.528156481660864</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.915307030228347</v>
@@ -34445,7 +34295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.577812521151899</v>
+        <v>1.538157765167553</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.952854711756079</v>
@@ -34534,7 +34384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.587255998720173</v>
+        <v>1.560422218199526</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.972170855739407</v>
@@ -34623,7 +34473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.584609813553716</v>
+        <v>1.562871921711027</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.905201727198266</v>
@@ -34712,7 +34562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.576540449106198</v>
+        <v>1.556262607060324</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.678978797056919</v>
@@ -34801,7 +34651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.572549219335564</v>
+        <v>1.544523917837493</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.49358439864257</v>
@@ -34890,7 +34740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.574796760847561</v>
+        <v>1.546356549131267</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.500533802277698</v>
@@ -34979,7 +34829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.556195875549943</v>
+        <v>1.528905982962788</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.535475557452045</v>
@@ -35068,7 +34918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.565030368479739</v>
+        <v>1.532916137323322</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.645255675475377</v>
@@ -35157,7 +35007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.54847930634709</v>
+        <v>1.521403874960901</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.406483573222776</v>
@@ -35246,7 +35096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.548566245721052</v>
+        <v>1.519421688670741</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.466039398695834</v>
@@ -35335,7 +35185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.549091506103297</v>
+        <v>1.520024492638784</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.480002065383709</v>
@@ -35424,7 +35274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.544919282133972</v>
+        <v>1.516427636320179</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.495210966894517</v>
@@ -35513,7 +35363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.55732221966444</v>
+        <v>1.52891319874952</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.543209433699654</v>
@@ -35602,7 +35452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.562859956793953</v>
+        <v>1.535819162331353</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.576359468017629</v>
@@ -35691,7 +35541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.560462135604622</v>
+        <v>1.538618080313372</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.392845837615262</v>
@@ -35780,7 +35630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.550525470603776</v>
+        <v>1.524859275154147</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.391872735478549</v>
@@ -35869,7 +35719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.540063206737507</v>
+        <v>1.506738118228706</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.499824298996291</v>
@@ -35958,7 +35808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.519637743478362</v>
+        <v>1.491681379636659</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.296049112912219</v>
@@ -36047,7 +35897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.526325202804564</v>
+        <v>1.495965694069069</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.300805546655203</v>
@@ -36136,7 +35986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.544132323721344</v>
+        <v>1.512414160617737</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.764174053450278</v>
@@ -36225,7 +36075,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.525822441189281</v>
+        <v>1.500302499972358</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.697886701096643</v>
@@ -36314,7 +36164,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.526277716653639</v>
+        <v>1.50323887762669</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.741538644487655</v>
@@ -36403,7 +36253,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.531498691368329</v>
+        <v>1.507893777691694</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.730184541915741</v>
@@ -36492,7 +36342,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.531285838671054</v>
+        <v>1.504289808882026</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.559164536800245</v>
@@ -36581,7 +36431,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.531269098040276</v>
+        <v>1.506668676174563</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.545739402048947</v>
@@ -36670,7 +36520,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.526505030277079</v>
+        <v>1.499404193066359</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.610305904163603</v>
@@ -36759,7 +36609,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.519303959079625</v>
+        <v>1.494169739563994</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.644859926213304</v>
@@ -36848,7 +36698,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.508556319251811</v>
+        <v>1.482860852010378</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.722342406286571</v>
@@ -36937,7 +36787,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.477005529481092</v>
+        <v>1.459167151326516</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.488007747945193</v>
@@ -37026,7 +36876,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.478202670850382</v>
+        <v>1.459868860200791</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.546788677754191</v>
@@ -37115,7 +36965,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.477819420162046</v>
+        <v>1.461424187703308</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.509950012255444</v>
@@ -37204,7 +37054,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.481655712720859</v>
+        <v>1.461123307983027</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.575111869324524</v>
@@ -37293,7 +37143,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.477529265600386</v>
+        <v>1.458967965035571</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.594706413034814</v>
@@ -37382,7 +37232,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.478776682226943</v>
+        <v>1.463366640109449</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.797362851798298</v>
@@ -37471,7 +37321,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.492874986856861</v>
+        <v>1.475890644561691</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.315933104765452</v>
@@ -37560,7 +37410,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.508444935440129</v>
+        <v>1.486653048863824</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.568904230294287</v>
@@ -37649,7 +37499,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.515846207600686</v>
+        <v>1.49283680525214</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.596524820417201</v>
@@ -37738,7 +37588,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.517664546403887</v>
+        <v>1.495435801341367</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.555793782339401</v>
@@ -37827,7 +37677,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.524406612450426</v>
+        <v>1.507646761569355</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.578804880530166</v>
@@ -38113,7 +37963,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.374632121709948</v>
+        <v>1.36192779748659</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.222431225703568</v>
@@ -38202,7 +38052,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.379400516109108</v>
+        <v>1.367426804584722</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.250127101441026</v>
@@ -38291,7 +38141,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.387203458420408</v>
+        <v>1.373958013285749</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.204855733676031</v>
@@ -38380,7 +38230,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.372588935895422</v>
+        <v>1.357170922674318</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.200766721908241</v>
@@ -38469,7 +38319,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.354503355181995</v>
+        <v>1.340243321958712</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.192552563232903</v>
@@ -38558,7 +38408,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.352989441450206</v>
+        <v>1.339027242692907</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.092253704072417</v>
@@ -38647,7 +38497,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.37569419104891</v>
+        <v>1.35925134981171</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.208816530104305</v>
@@ -38736,7 +38586,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.360242830368397</v>
+        <v>1.340014348772853</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.193903400500915</v>
@@ -38825,7 +38675,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.372988528925148</v>
+        <v>1.357636360168524</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.282473960501571</v>
@@ -38914,7 +38764,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.384521970886585</v>
+        <v>1.367213683904384</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.252533267755052</v>
@@ -39003,7 +38853,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.395238445530885</v>
+        <v>1.372766774502728</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.158450871764571</v>
@@ -39092,7 +38942,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.390462312854953</v>
+        <v>1.369605145749584</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.233083036610958</v>
@@ -39181,7 +39031,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.395781432117742</v>
+        <v>1.376138381366683</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.390715377059361</v>
@@ -39270,7 +39120,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.394359760137776</v>
+        <v>1.37396729711686</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.196991314495308</v>
@@ -39359,7 +39209,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.416076861748722</v>
+        <v>1.390578565917013</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.194005745322109</v>
@@ -39448,7 +39298,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.412437058814136</v>
+        <v>1.379334155972485</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.248658390725447</v>
@@ -39537,7 +39387,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.419682399436849</v>
+        <v>1.387104790924882</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.340782778832462</v>
@@ -39626,7 +39476,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.4135377757075</v>
+        <v>1.376547267153476</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.210797091834591</v>
@@ -39715,7 +39565,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.415182966720364</v>
+        <v>1.37770687687837</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.123450915198204</v>
@@ -39804,7 +39654,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.446461740755367</v>
+        <v>1.405000633025234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.1080826449622</v>
@@ -39893,7 +39743,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.45957227393196</v>
+        <v>1.413169633271504</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.201307300697883</v>
@@ -39982,7 +39832,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.451415642596949</v>
+        <v>1.398372068766821</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.283173000318247</v>
@@ -40071,7 +39921,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.450730392197665</v>
+        <v>1.411602804794358</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.33062646280443</v>
@@ -40160,7 +40010,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.44573550134293</v>
+        <v>1.407285774309224</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.28278520445119</v>
@@ -40249,7 +40099,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.444662340057083</v>
+        <v>1.409137534000695</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.281527664325425</v>
@@ -40338,7 +40188,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.473366939701313</v>
+        <v>1.430205619182838</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.122909542154176</v>
@@ -40427,7 +40277,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.459733435216198</v>
+        <v>1.413250636434283</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.236674801956091</v>
@@ -40516,7 +40366,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.420634315002052</v>
+        <v>1.380145546834761</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.219929296888901</v>
@@ -40605,7 +40455,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.419733772563972</v>
+        <v>1.378464341834769</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.3440590403782</v>
@@ -40694,7 +40544,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.427811736658239</v>
+        <v>1.386428429015725</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.338748061207642</v>
@@ -40783,7 +40633,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.414328262151148</v>
+        <v>1.382723669022985</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.355403916459973</v>
@@ -40872,7 +40722,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.428775496067629</v>
+        <v>1.394531677410223</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.331981405536357</v>
@@ -40961,7 +40811,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.410984287544398</v>
+        <v>1.380779269298076</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.280167445006338</v>
@@ -41050,7 +40900,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.41249511074688</v>
+        <v>1.376203901175915</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.176584990032999</v>
@@ -41139,7 +40989,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.400887971605859</v>
+        <v>1.371344235636587</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.267426472150953</v>
@@ -41228,7 +41078,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.377819836385259</v>
+        <v>1.349376585496684</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.298253348876336</v>
@@ -41317,7 +41167,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.391829024978467</v>
+        <v>1.364434958877917</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.119040331381424</v>
@@ -41406,7 +41256,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.379515865532807</v>
+        <v>1.351068423512326</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.300398227877335</v>
@@ -41495,7 +41345,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.381912850321954</v>
+        <v>1.355282133545076</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.23271793704194</v>
@@ -41584,7 +41434,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.376972371348663</v>
+        <v>1.350092847205328</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.353850224133846</v>
@@ -41673,7 +41523,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.370008927479645</v>
+        <v>1.344011419264822</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.24700845217151</v>
@@ -41762,7 +41612,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.384132619344256</v>
+        <v>1.361804004784201</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.186214257922824</v>
@@ -41851,7 +41701,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.398597155498858</v>
+        <v>1.370623562676925</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.190379533794826</v>
@@ -41940,7 +41790,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.396947130448894</v>
+        <v>1.37437538642629</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.155976243104653</v>
@@ -42029,7 +41879,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.376096045702814</v>
+        <v>1.353089444415593</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.143188999744452</v>
@@ -42118,7 +41968,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.392882662941199</v>
+        <v>1.363949585129754</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.304284833220541</v>
@@ -42207,7 +42057,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.358130540783115</v>
+        <v>1.340892815118873</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.176605821398844</v>
@@ -42296,7 +42146,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.376854089124236</v>
+        <v>1.360695791380322</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.18318096429629</v>
@@ -42385,7 +42235,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.386271223128698</v>
+        <v>1.368251771969842</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.105814621538425</v>
@@ -42474,7 +42324,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.371228228651016</v>
+        <v>1.356550285807805</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.160970679761647</v>
@@ -42563,7 +42413,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.378638525515684</v>
+        <v>1.364156747196536</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.194215633870555</v>
@@ -42652,7 +42502,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.378585423529354</v>
+        <v>1.364208341952228</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.145556353245528</v>
@@ -42741,7 +42591,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.384080995240904</v>
+        <v>1.369178319906013</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.235649952883414</v>
@@ -42830,7 +42680,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.388135593448705</v>
+        <v>1.373360746158679</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.240740527592817</v>
@@ -42919,7 +42769,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.396036543013155</v>
+        <v>1.378040093516671</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.191096154812438</v>
@@ -43008,7 +42858,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.38756430076451</v>
+        <v>1.370870057829443</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.294942715574036</v>
@@ -43097,7 +42947,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.366348902668018</v>
+        <v>1.349700836239867</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.242485160460374</v>
@@ -43186,7 +43036,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.32630900067755</v>
+        <v>1.314643023826433</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.082796223824441</v>
@@ -43275,7 +43125,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.324909265375898</v>
+        <v>1.312114346014491</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.035431591398865</v>
@@ -43364,7 +43214,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.333876241026499</v>
+        <v>1.324908221788232</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.060666745356476</v>
@@ -43453,7 +43303,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.340913466884067</v>
+        <v>1.329480946695416</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.087984962242805</v>
@@ -43542,7 +43392,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.34720978558818</v>
+        <v>1.337416863173655</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.089430083161348</v>
@@ -43631,7 +43481,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.341241397516661</v>
+        <v>1.330078496340184</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.141279791312371</v>
@@ -43720,7 +43570,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.34699929452137</v>
+        <v>1.335976080530521</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.954259246075229</v>
@@ -43809,7 +43659,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.346344465627946</v>
+        <v>1.333046529705527</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.038445322760613</v>
@@ -43898,7 +43748,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.345882787066884</v>
+        <v>1.331132205306997</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.022492408294998</v>
@@ -43987,7 +43837,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.34669572485748</v>
+        <v>1.333023499949584</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.099908425374975</v>
@@ -44076,7 +43926,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.34802899168011</v>
+        <v>1.338226500466364</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.072424965203266</v>
